--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final/300nodes/300.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final/300nodes/300.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(SWIB)\Final\300nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(Finished)\Final\300nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C533019-9A99-4220-81C1-2F754F3E395E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880166A8-D646-4684-A775-70BDC1C33FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="综合图" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1552,13 +1552,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44:W53"/>
+    <sheetView topLeftCell="G103" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44:V53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1584,12 +1584,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>1918</v>
+        <v>1939</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -1637,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="R2">
-        <v>7375</v>
+        <v>6975</v>
       </c>
       <c r="S2" t="s">
         <v>7</v>
@@ -1647,15 +1647,15 @@
       </c>
       <c r="U2">
         <f>R2-H2</f>
-        <v>5457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1673,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>9284</v>
+        <v>8905</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -1685,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
@@ -1703,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="R3">
-        <v>14499</v>
+        <v>14234</v>
       </c>
       <c r="S3" t="s">
         <v>7</v>
@@ -1713,21 +1713,21 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0">R3-H3</f>
-        <v>5215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1739,25 +1739,25 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <v>14500</v>
+        <v>16146</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
         <v>3</v>
@@ -1769,25 +1769,25 @@
         <v>6</v>
       </c>
       <c r="R4">
-        <v>16364</v>
+        <v>21454</v>
       </c>
       <c r="S4" t="s">
         <v>7</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1805,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>18253</v>
+        <v>23385</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1817,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
@@ -1835,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="R5">
-        <v>23797</v>
+        <v>28432</v>
       </c>
       <c r="S5" t="s">
         <v>7</v>
@@ -1845,15 +1845,15 @@
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>5544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1871,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>25698</v>
+        <v>30361</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1883,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="M6" t="s">
         <v>17</v>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="R6">
-        <v>30964</v>
+        <v>35661</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
@@ -1911,15 +1911,15 @@
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>5266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>32876</v>
+        <v>37579</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -1949,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
@@ -1967,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>38002</v>
+        <v>42766</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
@@ -1977,15 +1977,15 @@
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>5126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <v>39928</v>
+        <v>44676</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M8" t="s">
         <v>17</v>
@@ -2033,7 +2033,7 @@
         <v>6</v>
       </c>
       <c r="R8">
-        <v>45147</v>
+        <v>50125</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -2043,15 +2043,15 @@
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>5219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2069,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="H9">
-        <v>47053</v>
+        <v>52041</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="R9">
-        <v>52282</v>
+        <v>57332</v>
       </c>
       <c r="S9" t="s">
         <v>7</v>
@@ -2109,15 +2109,15 @@
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>5229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>54157</v>
+        <v>59214</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
@@ -2165,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="R10">
-        <v>59562</v>
+        <v>64477</v>
       </c>
       <c r="S10" t="s">
         <v>7</v>
@@ -2175,15 +2175,15 @@
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>5405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -2201,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="H11">
-        <v>61470</v>
+        <v>66373</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -2213,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
@@ -2231,7 +2231,7 @@
         <v>6</v>
       </c>
       <c r="R11">
-        <v>66697</v>
+        <v>71545</v>
       </c>
       <c r="S11" t="s">
         <v>7</v>
@@ -2241,10 +2241,10 @@
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>5227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2270,21 +2270,17 @@
         <v>30</v>
       </c>
       <c r="R12" s="2"/>
-      <c r="T12">
-        <f>AVERAGE(T2:T11)</f>
-        <v>1842.3</v>
-      </c>
       <c r="U12" s="2">
         <f>AVERAGE(U2:U11)</f>
-        <v>4955.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5238.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -2302,7 +2298,7 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>1910</v>
+        <v>1942</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -2314,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
         <v>17</v>
@@ -2332,7 +2328,7 @@
         <v>6</v>
       </c>
       <c r="R13">
-        <v>7154</v>
+        <v>7296</v>
       </c>
       <c r="S13" t="s">
         <v>7</v>
@@ -2342,21 +2338,21 @@
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>5244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -2368,25 +2364,25 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>9072</v>
+        <v>7297</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
       </c>
       <c r="J14">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="M14" t="s">
         <v>17</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
         <v>3</v>
@@ -2398,25 +2394,25 @@
         <v>6</v>
       </c>
       <c r="R14">
-        <v>14159</v>
+        <v>12454</v>
       </c>
       <c r="S14" t="s">
         <v>7</v>
       </c>
       <c r="T14">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>5087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -2434,7 +2430,7 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>16068</v>
+        <v>14376</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2446,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="M15" t="s">
         <v>17</v>
@@ -2464,7 +2460,7 @@
         <v>6</v>
       </c>
       <c r="R15">
-        <v>21258</v>
+        <v>19563</v>
       </c>
       <c r="S15" t="s">
         <v>7</v>
@@ -2474,15 +2470,15 @@
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>5190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -2500,7 +2496,7 @@
         <v>4</v>
       </c>
       <c r="H16">
-        <v>23150</v>
+        <v>21449</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2512,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="M16" t="s">
         <v>17</v>
@@ -2530,7 +2526,7 @@
         <v>6</v>
       </c>
       <c r="R16">
-        <v>28282</v>
+        <v>26617</v>
       </c>
       <c r="S16" t="s">
         <v>7</v>
@@ -2540,15 +2536,15 @@
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>5132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -2566,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="H17">
-        <v>30191</v>
+        <v>28549</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2578,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M17" t="s">
         <v>17</v>
@@ -2596,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="R17">
-        <v>35514</v>
+        <v>33743</v>
       </c>
       <c r="S17" t="s">
         <v>7</v>
@@ -2606,15 +2602,15 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>5323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -2632,7 +2628,7 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>37413</v>
+        <v>35673</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2644,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
@@ -2662,7 +2658,7 @@
         <v>6</v>
       </c>
       <c r="R18">
-        <v>42979</v>
+        <v>40735</v>
       </c>
       <c r="S18" t="s">
         <v>7</v>
@@ -2672,15 +2668,15 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>5566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -2698,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="H19">
-        <v>44894</v>
+        <v>42640</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2710,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s">
         <v>17</v>
@@ -2728,7 +2724,7 @@
         <v>6</v>
       </c>
       <c r="R19">
-        <v>50110</v>
+        <v>47801</v>
       </c>
       <c r="S19" t="s">
         <v>7</v>
@@ -2738,15 +2734,15 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>5216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -2764,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>52044</v>
+        <v>49714</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2776,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s">
         <v>17</v>
@@ -2794,7 +2790,7 @@
         <v>6</v>
       </c>
       <c r="R20">
-        <v>57339</v>
+        <v>55219</v>
       </c>
       <c r="S20" t="s">
         <v>7</v>
@@ -2804,15 +2800,15 @@
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -2830,7 +2826,7 @@
         <v>4</v>
       </c>
       <c r="H21">
-        <v>59269</v>
+        <v>57126</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2842,7 +2838,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s">
         <v>17</v>
@@ -2860,7 +2856,7 @@
         <v>6</v>
       </c>
       <c r="R21">
-        <v>64307</v>
+        <v>62311</v>
       </c>
       <c r="S21" t="s">
         <v>7</v>
@@ -2870,15 +2866,15 @@
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
-        <v>5038</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -2896,7 +2892,7 @@
         <v>4</v>
       </c>
       <c r="H22">
-        <v>66210</v>
+        <v>64183</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2908,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
@@ -2926,7 +2922,7 @@
         <v>6</v>
       </c>
       <c r="R22">
-        <v>71386</v>
+        <v>69336</v>
       </c>
       <c r="S22" t="s">
         <v>7</v>
@@ -2936,10 +2932,10 @@
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>5176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2965,21 +2961,17 @@
         <v>45</v>
       </c>
       <c r="R23" s="2"/>
-      <c r="T23">
-        <f>AVERAGE(T13:T22)</f>
-        <v>2047</v>
-      </c>
       <c r="U23" s="2">
         <f>AVERAGE(U13:U22)</f>
-        <v>5226.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5212.6000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -2997,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -3009,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M24" t="s">
         <v>17</v>
@@ -3027,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="R24">
-        <v>7018</v>
+        <v>6925</v>
       </c>
       <c r="S24" t="s">
         <v>7</v>
@@ -3037,21 +3029,21 @@
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
@@ -3063,25 +3055,25 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>8925</v>
+        <v>6926</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
       </c>
       <c r="J25">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M25" t="s">
         <v>17</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
         <v>3</v>
@@ -3093,25 +3085,25 @@
         <v>6</v>
       </c>
       <c r="R25">
-        <v>14078</v>
+        <v>12041</v>
       </c>
       <c r="S25" t="s">
         <v>7</v>
       </c>
       <c r="T25">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
-        <v>5153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -3129,7 +3121,7 @@
         <v>4</v>
       </c>
       <c r="H26">
-        <v>16010</v>
+        <v>13942</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3141,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="M26" t="s">
         <v>17</v>
@@ -3159,7 +3151,7 @@
         <v>6</v>
       </c>
       <c r="R26">
-        <v>21249</v>
+        <v>18933</v>
       </c>
       <c r="S26" t="s">
         <v>7</v>
@@ -3169,21 +3161,21 @@
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>5239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
@@ -3195,25 +3187,25 @@
         <v>4</v>
       </c>
       <c r="H27">
-        <v>21250</v>
+        <v>20863</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K27" t="s">
         <v>2</v>
       </c>
       <c r="L27">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="M27" t="s">
         <v>17</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="s">
         <v>3</v>
@@ -3225,25 +3217,25 @@
         <v>6</v>
       </c>
       <c r="R27">
-        <v>22806</v>
+        <v>25891</v>
       </c>
       <c r="S27" t="s">
         <v>7</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -3261,7 +3253,7 @@
         <v>4</v>
       </c>
       <c r="H28">
-        <v>24732</v>
+        <v>27802</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3273,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="M28" t="s">
         <v>17</v>
@@ -3291,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="R28">
-        <v>29810</v>
+        <v>32901</v>
       </c>
       <c r="S28" t="s">
         <v>7</v>
@@ -3301,15 +3293,15 @@
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>5078</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -3327,7 +3319,7 @@
         <v>4</v>
       </c>
       <c r="H29">
-        <v>31745</v>
+        <v>34842</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3339,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="M29" t="s">
         <v>17</v>
@@ -3357,7 +3349,7 @@
         <v>6</v>
       </c>
       <c r="R29">
-        <v>36658</v>
+        <v>39928</v>
       </c>
       <c r="S29" t="s">
         <v>7</v>
@@ -3367,15 +3359,15 @@
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>4913</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -3393,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>38572</v>
+        <v>41844</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3405,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="M30" t="s">
         <v>17</v>
@@ -3423,7 +3415,7 @@
         <v>6</v>
       </c>
       <c r="R30">
-        <v>43803</v>
+        <v>46991</v>
       </c>
       <c r="S30" t="s">
         <v>7</v>
@@ -3433,21 +3425,21 @@
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>5231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
@@ -3459,25 +3451,25 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <v>45722</v>
+        <v>46992</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
       </c>
       <c r="J31">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="M31" t="s">
         <v>17</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="s">
         <v>3</v>
@@ -3489,31 +3481,31 @@
         <v>6</v>
       </c>
       <c r="R31">
-        <v>50857</v>
+        <v>52068</v>
       </c>
       <c r="S31" t="s">
         <v>7</v>
       </c>
       <c r="T31">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>5135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
@@ -3525,25 +3517,25 @@
         <v>4</v>
       </c>
       <c r="H32">
-        <v>50858</v>
+        <v>53977</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K32" t="s">
         <v>2</v>
       </c>
       <c r="L32">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="M32" t="s">
         <v>17</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
         <v>3</v>
@@ -3555,25 +3547,25 @@
         <v>6</v>
       </c>
       <c r="R32">
-        <v>52362</v>
+        <v>59183</v>
       </c>
       <c r="S32" t="s">
         <v>7</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -3591,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="H33">
-        <v>54252</v>
+        <v>61107</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3603,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s">
         <v>17</v>
@@ -3621,7 +3613,7 @@
         <v>6</v>
       </c>
       <c r="R33">
-        <v>59494</v>
+        <v>66148</v>
       </c>
       <c r="S33" t="s">
         <v>7</v>
@@ -3631,10 +3623,10 @@
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
-        <v>5242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3660,21 +3652,17 @@
         <v>60</v>
       </c>
       <c r="R34" s="2"/>
-      <c r="T34">
-        <f>AVERAGE(T24:T33)</f>
-        <v>1637.6</v>
-      </c>
       <c r="U34" s="2">
         <f>AVERAGE(U24:U33)</f>
-        <v>4416.6000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5080.8999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
       <c r="B35">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -3692,7 +3680,7 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>1902</v>
+        <v>1877</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3704,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="L35">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="M35" t="s">
         <v>17</v>
@@ -3722,7 +3710,7 @@
         <v>6</v>
       </c>
       <c r="R35">
-        <v>7026</v>
+        <v>6840</v>
       </c>
       <c r="S35" t="s">
         <v>7</v>
@@ -3732,21 +3720,21 @@
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
-        <v>5124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
@@ -3758,25 +3746,25 @@
         <v>4</v>
       </c>
       <c r="H36">
-        <v>8959</v>
+        <v>6841</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
       </c>
       <c r="J36">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>2</v>
       </c>
       <c r="L36">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M36" t="s">
         <v>17</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="s">
         <v>3</v>
@@ -3788,25 +3776,25 @@
         <v>6</v>
       </c>
       <c r="R36">
-        <v>14065</v>
+        <v>11693</v>
       </c>
       <c r="S36" t="s">
         <v>7</v>
       </c>
       <c r="T36">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
-        <v>5106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -3824,7 +3812,7 @@
         <v>4</v>
       </c>
       <c r="H37">
-        <v>15984</v>
+        <v>13614</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3836,7 +3824,7 @@
         <v>2</v>
       </c>
       <c r="L37">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="M37" t="s">
         <v>17</v>
@@ -3854,7 +3842,7 @@
         <v>6</v>
       </c>
       <c r="R37">
-        <v>21079</v>
+        <v>18544</v>
       </c>
       <c r="S37" t="s">
         <v>7</v>
@@ -3864,21 +3852,21 @@
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
-        <v>5095</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
@@ -3890,25 +3878,25 @@
         <v>4</v>
       </c>
       <c r="H38">
-        <v>21080</v>
+        <v>20448</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
       </c>
       <c r="L38">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="M38" t="s">
         <v>17</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="s">
         <v>3</v>
@@ -3920,25 +3908,25 @@
         <v>6</v>
       </c>
       <c r="R38">
-        <v>22638</v>
+        <v>25376</v>
       </c>
       <c r="S38" t="s">
         <v>7</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
       <c r="B39">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -3956,7 +3944,7 @@
         <v>4</v>
       </c>
       <c r="H39">
-        <v>24544</v>
+        <v>27298</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -3968,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="L39">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="M39" t="s">
         <v>17</v>
@@ -3986,7 +3974,7 @@
         <v>6</v>
       </c>
       <c r="R39">
-        <v>29553</v>
+        <v>32330</v>
       </c>
       <c r="S39" t="s">
         <v>7</v>
@@ -3996,15 +3984,15 @@
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
-        <v>5009</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -4022,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>31454</v>
+        <v>34214</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4034,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="M40" t="s">
         <v>17</v>
@@ -4052,7 +4040,7 @@
         <v>6</v>
       </c>
       <c r="R40">
-        <v>36616</v>
+        <v>39314</v>
       </c>
       <c r="S40" t="s">
         <v>7</v>
@@ -4062,21 +4050,21 @@
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
-        <v>5162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>3</v>
@@ -4088,25 +4076,25 @@
         <v>4</v>
       </c>
       <c r="H41">
-        <v>38530</v>
+        <v>39315</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
       </c>
       <c r="J41">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K41" t="s">
         <v>2</v>
       </c>
       <c r="L41">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="M41" t="s">
         <v>17</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="s">
         <v>3</v>
@@ -4118,25 +4106,25 @@
         <v>6</v>
       </c>
       <c r="R41">
-        <v>43630</v>
+        <v>44217</v>
       </c>
       <c r="S41" t="s">
         <v>7</v>
       </c>
       <c r="T41">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -4154,7 +4142,7 @@
         <v>4</v>
       </c>
       <c r="H42">
-        <v>45556</v>
+        <v>46120</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4166,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="L42">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="M42" t="s">
         <v>17</v>
@@ -4184,7 +4172,7 @@
         <v>6</v>
       </c>
       <c r="R42">
-        <v>50587</v>
+        <v>51184</v>
       </c>
       <c r="S42" t="s">
         <v>7</v>
@@ -4194,15 +4182,15 @@
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
-        <v>5031</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
       <c r="B43">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -4220,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="H43">
-        <v>52497</v>
+        <v>53103</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4232,7 +4220,7 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="M43" t="s">
         <v>17</v>
@@ -4250,7 +4238,7 @@
         <v>6</v>
       </c>
       <c r="R43">
-        <v>57469</v>
+        <v>58213</v>
       </c>
       <c r="S43" t="s">
         <v>7</v>
@@ -4260,15 +4248,15 @@
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
-        <v>4972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -4286,7 +4274,7 @@
         <v>4</v>
       </c>
       <c r="H44">
-        <v>59396</v>
+        <v>60141</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4298,7 +4286,7 @@
         <v>2</v>
       </c>
       <c r="L44">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="M44" t="s">
         <v>17</v>
@@ -4316,7 +4304,7 @@
         <v>6</v>
       </c>
       <c r="R44">
-        <v>64566</v>
+        <v>65098</v>
       </c>
       <c r="S44" t="s">
         <v>7</v>
@@ -4326,18 +4314,18 @@
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
-        <v>5170</v>
+        <v>4957</v>
       </c>
       <c r="V44">
         <f>U12</f>
-        <v>4955.2</v>
+        <v>5238.2</v>
       </c>
       <c r="W44">
         <f>T12</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -4363,29 +4351,25 @@
         <v>75</v>
       </c>
       <c r="R45" s="2"/>
-      <c r="T45">
-        <f>AVERAGE(T35:T44)</f>
-        <v>1842.3</v>
-      </c>
       <c r="U45" s="2">
         <f>AVERAGE(U35:U44)</f>
-        <v>4732.7</v>
+        <v>4983.8</v>
       </c>
       <c r="V45">
         <f>U23</f>
-        <v>5226.7</v>
+        <v>5212.6000000000004</v>
       </c>
       <c r="W45">
         <f>T23</f>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
       <c r="B46">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -4403,7 +4387,7 @@
         <v>4</v>
       </c>
       <c r="H46">
-        <v>1907</v>
+        <v>1856</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4415,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="L46">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="M46" t="s">
         <v>17</v>
@@ -4433,7 +4417,7 @@
         <v>6</v>
       </c>
       <c r="R46">
-        <v>6942</v>
+        <v>6749</v>
       </c>
       <c r="S46" t="s">
         <v>7</v>
@@ -4443,23 +4427,23 @@
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
-        <v>5035</v>
+        <v>4893</v>
       </c>
       <c r="V46">
         <f>U34</f>
-        <v>4416.6000000000004</v>
+        <v>5080.8999999999996</v>
       </c>
       <c r="W46">
         <f>T34</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -4477,7 +4461,7 @@
         <v>4</v>
       </c>
       <c r="H47">
-        <v>8830</v>
+        <v>8674</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -4489,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="L47">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M47" t="s">
         <v>17</v>
@@ -4507,7 +4491,7 @@
         <v>6</v>
       </c>
       <c r="R47">
-        <v>14092</v>
+        <v>13640</v>
       </c>
       <c r="S47" t="s">
         <v>7</v>
@@ -4517,23 +4501,23 @@
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
-        <v>5262</v>
+        <v>4966</v>
       </c>
       <c r="V47">
         <f>U45</f>
-        <v>4732.7</v>
+        <v>4983.8</v>
       </c>
       <c r="W47">
         <f>T45</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -4551,7 +4535,7 @@
         <v>4</v>
       </c>
       <c r="H48">
-        <v>16001</v>
+        <v>15551</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -4563,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="L48">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="M48" t="s">
         <v>17</v>
@@ -4581,7 +4565,7 @@
         <v>6</v>
       </c>
       <c r="R48">
-        <v>21177</v>
+        <v>20343</v>
       </c>
       <c r="S48" t="s">
         <v>7</v>
@@ -4591,29 +4575,29 @@
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
-        <v>5176</v>
+        <v>4792</v>
       </c>
       <c r="V48">
         <f>U56</f>
-        <v>4726.5</v>
+        <v>4887.2</v>
       </c>
       <c r="W48">
         <f>T56</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>3</v>
@@ -4625,25 +4609,25 @@
         <v>4</v>
       </c>
       <c r="H49">
-        <v>23074</v>
+        <v>20344</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
       </c>
       <c r="J49">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
         <v>2</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="M49" t="s">
         <v>17</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="s">
         <v>3</v>
@@ -4655,33 +4639,33 @@
         <v>6</v>
       </c>
       <c r="R49">
-        <v>28085</v>
+        <v>25161</v>
       </c>
       <c r="S49" t="s">
         <v>7</v>
       </c>
       <c r="T49">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
-        <v>5011</v>
+        <v>4817</v>
       </c>
       <c r="V49">
         <f>U67</f>
-        <v>4307.2</v>
+        <v>4858.3999999999996</v>
       </c>
       <c r="W49">
         <f>T67</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -4699,7 +4683,7 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>30019</v>
+        <v>27103</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -4711,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="M50" t="s">
         <v>17</v>
@@ -4729,7 +4713,7 @@
         <v>6</v>
       </c>
       <c r="R50">
-        <v>34973</v>
+        <v>31944</v>
       </c>
       <c r="S50" t="s">
         <v>7</v>
@@ -4739,23 +4723,23 @@
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
-        <v>4954</v>
+        <v>4841</v>
       </c>
       <c r="V50">
         <f>U78</f>
-        <v>3572.9</v>
+        <v>4808.7</v>
       </c>
       <c r="W50">
         <f>T78</f>
-        <v>1228.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -4773,7 +4757,7 @@
         <v>4</v>
       </c>
       <c r="H51">
-        <v>36881</v>
+        <v>33875</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
@@ -4785,7 +4769,7 @@
         <v>2</v>
       </c>
       <c r="L51">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M51" t="s">
         <v>17</v>
@@ -4803,7 +4787,7 @@
         <v>6</v>
       </c>
       <c r="R51">
-        <v>42059</v>
+        <v>38865</v>
       </c>
       <c r="S51" t="s">
         <v>7</v>
@@ -4813,23 +4797,23 @@
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
-        <v>5178</v>
+        <v>4990</v>
       </c>
       <c r="V51">
         <f>U89</f>
-        <v>4333.6000000000004</v>
+        <v>4785.7</v>
       </c>
       <c r="W51">
         <f>T89</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -4847,7 +4831,7 @@
         <v>4</v>
       </c>
       <c r="H52">
-        <v>43978</v>
+        <v>40787</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -4859,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="L52">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="M52" t="s">
         <v>17</v>
@@ -4877,7 +4861,7 @@
         <v>6</v>
       </c>
       <c r="R52">
-        <v>49011</v>
+        <v>45775</v>
       </c>
       <c r="S52" t="s">
         <v>7</v>
@@ -4887,23 +4871,23 @@
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
-        <v>5033</v>
+        <v>4988</v>
       </c>
       <c r="V52">
         <f>U100</f>
-        <v>4634.3999999999996</v>
+        <v>4786.1000000000004</v>
       </c>
       <c r="W52">
         <f>T100</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -4921,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="H53">
-        <v>49012</v>
+        <v>45776</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -4933,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M53" t="s">
         <v>17</v>
@@ -4951,7 +4935,7 @@
         <v>6</v>
       </c>
       <c r="R53">
-        <v>50646</v>
+        <v>50620</v>
       </c>
       <c r="S53" t="s">
         <v>7</v>
@@ -4961,23 +4945,23 @@
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
-        <v>1634</v>
+        <v>4844</v>
       </c>
       <c r="V53">
         <f>U111</f>
-        <v>4404</v>
+        <v>4805.8</v>
       </c>
       <c r="W53">
         <f>T111</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1023.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -4995,7 +4979,7 @@
         <v>4</v>
       </c>
       <c r="H54">
-        <v>52570</v>
+        <v>52517</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5007,7 +4991,7 @@
         <v>2</v>
       </c>
       <c r="L54">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="M54" t="s">
         <v>17</v>
@@ -5025,7 +5009,7 @@
         <v>6</v>
       </c>
       <c r="R54">
-        <v>57570</v>
+        <v>57382</v>
       </c>
       <c r="S54" t="s">
         <v>7</v>
@@ -5035,15 +5019,15 @@
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -5061,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>59476</v>
+        <v>59269</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5073,7 +5057,7 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="M55" t="s">
         <v>17</v>
@@ -5091,7 +5075,7 @@
         <v>6</v>
       </c>
       <c r="R55">
-        <v>64458</v>
+        <v>64145</v>
       </c>
       <c r="S55" t="s">
         <v>7</v>
@@ -5101,10 +5085,10 @@
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
-        <v>4982</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -5130,21 +5114,17 @@
         <v>90</v>
       </c>
       <c r="R56" s="2"/>
-      <c r="T56">
-        <f>AVERAGE(T46:T55)</f>
-        <v>1842.3</v>
-      </c>
       <c r="U56" s="2">
         <f>AVERAGE(U46:U55)</f>
-        <v>4726.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4887.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
       <c r="B57">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -5162,7 +5142,7 @@
         <v>4</v>
       </c>
       <c r="H57">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
@@ -5174,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="L57">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M57" t="s">
         <v>17</v>
@@ -5192,7 +5172,7 @@
         <v>6</v>
       </c>
       <c r="R57">
-        <v>6929</v>
+        <v>6833</v>
       </c>
       <c r="S57" t="s">
         <v>7</v>
@@ -5202,21 +5182,21 @@
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
@@ -5228,25 +5208,25 @@
         <v>4</v>
       </c>
       <c r="H58">
-        <v>8860</v>
+        <v>6834</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
       </c>
       <c r="J58">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K58" t="s">
         <v>2</v>
       </c>
       <c r="L58">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M58" t="s">
         <v>17</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="s">
         <v>3</v>
@@ -5258,25 +5238,25 @@
         <v>6</v>
       </c>
       <c r="R58">
-        <v>13928</v>
+        <v>11653</v>
       </c>
       <c r="S58" t="s">
         <v>7</v>
       </c>
       <c r="T58">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
-        <v>5068</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -5294,7 +5274,7 @@
         <v>4</v>
       </c>
       <c r="H59">
-        <v>15851</v>
+        <v>13551</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
@@ -5306,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M59" t="s">
         <v>17</v>
@@ -5324,7 +5304,7 @@
         <v>6</v>
       </c>
       <c r="R59">
-        <v>20808</v>
+        <v>18471</v>
       </c>
       <c r="S59" t="s">
         <v>7</v>
@@ -5334,21 +5314,21 @@
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
-        <v>4957</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
         <v>3</v>
@@ -5360,25 +5340,25 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>20809</v>
+        <v>20390</v>
       </c>
       <c r="I60" t="s">
         <v>5</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K60" t="s">
         <v>2</v>
       </c>
       <c r="L60">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="M60" t="s">
         <v>17</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="s">
         <v>3</v>
@@ -5390,31 +5370,31 @@
         <v>6</v>
       </c>
       <c r="R60">
-        <v>22384</v>
+        <v>25198</v>
       </c>
       <c r="S60" t="s">
         <v>7</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
@@ -5426,25 +5406,25 @@
         <v>4</v>
       </c>
       <c r="H61">
-        <v>24298</v>
+        <v>25199</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
       </c>
       <c r="J61">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K61" t="s">
         <v>2</v>
       </c>
       <c r="L61">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="M61" t="s">
         <v>17</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="s">
         <v>3</v>
@@ -5456,25 +5436,25 @@
         <v>6</v>
       </c>
       <c r="R61">
-        <v>29363</v>
+        <v>30019</v>
       </c>
       <c r="S61" t="s">
         <v>7</v>
       </c>
       <c r="T61">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
-        <v>5065</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62">
-        <v>273</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -5492,7 +5472,7 @@
         <v>4</v>
       </c>
       <c r="H62">
-        <v>31271</v>
+        <v>31917</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5504,7 +5484,7 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>273</v>
+        <v>155</v>
       </c>
       <c r="M62" t="s">
         <v>17</v>
@@ -5522,7 +5502,7 @@
         <v>6</v>
       </c>
       <c r="R62">
-        <v>36241</v>
+        <v>36788</v>
       </c>
       <c r="S62" t="s">
         <v>7</v>
@@ -5532,15 +5512,15 @@
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
-        <v>4970</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
       <c r="B63">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -5558,7 +5538,7 @@
         <v>4</v>
       </c>
       <c r="H63">
-        <v>38161</v>
+        <v>38695</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
@@ -5570,7 +5550,7 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="M63" t="s">
         <v>17</v>
@@ -5588,7 +5568,7 @@
         <v>6</v>
       </c>
       <c r="R63">
-        <v>43152</v>
+        <v>43563</v>
       </c>
       <c r="S63" t="s">
         <v>7</v>
@@ -5598,21 +5578,21 @@
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
-        <v>4991</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
@@ -5624,25 +5604,25 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <v>45060</v>
+        <v>43564</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
       </c>
       <c r="J64">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K64" t="s">
         <v>2</v>
       </c>
       <c r="L64">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="M64" t="s">
         <v>17</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
         <v>3</v>
@@ -5654,31 +5634,31 @@
         <v>6</v>
       </c>
       <c r="R64">
-        <v>50120</v>
+        <v>48424</v>
       </c>
       <c r="S64" t="s">
         <v>7</v>
       </c>
       <c r="T64">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
-        <v>5060</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
       <c r="B65">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="s">
         <v>3</v>
@@ -5690,25 +5670,25 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>50121</v>
+        <v>50335</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K65" t="s">
         <v>2</v>
       </c>
       <c r="L65">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="M65" t="s">
         <v>17</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="s">
         <v>3</v>
@@ -5720,25 +5700,25 @@
         <v>6</v>
       </c>
       <c r="R65">
-        <v>51444</v>
+        <v>55150</v>
       </c>
       <c r="S65" t="s">
         <v>7</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
       <c r="B66">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -5756,7 +5736,7 @@
         <v>4</v>
       </c>
       <c r="H66">
-        <v>53350</v>
+        <v>57064</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
@@ -5768,7 +5748,7 @@
         <v>2</v>
       </c>
       <c r="L66">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M66" t="s">
         <v>17</v>
@@ -5786,7 +5766,7 @@
         <v>6</v>
       </c>
       <c r="R66">
-        <v>58373</v>
+        <v>61926</v>
       </c>
       <c r="S66" t="s">
         <v>7</v>
@@ -5796,10 +5776,10 @@
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
-        <v>5023</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -5825,27 +5805,23 @@
         <v>105</v>
       </c>
       <c r="R67" s="2"/>
-      <c r="T67">
-        <f>AVERAGE(T57:T66)</f>
-        <v>1637.6</v>
-      </c>
       <c r="U67" s="2">
         <f>AVERAGE(U57:U66)</f>
-        <v>4307.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4858.3999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
       <c r="B68">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
         <v>3</v>
@@ -5857,25 +5833,25 @@
         <v>4</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="I68" t="s">
         <v>5</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K68" t="s">
         <v>2</v>
       </c>
       <c r="L68">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="M68" t="s">
         <v>17</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="s">
         <v>3</v>
@@ -5887,31 +5863,31 @@
         <v>6</v>
       </c>
       <c r="R68">
-        <v>1484</v>
+        <v>6640</v>
       </c>
       <c r="S68" t="s">
         <v>7</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U68">
         <f t="shared" ref="U68:U110" si="1">R68-H68</f>
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>3</v>
@@ -5923,25 +5899,25 @@
         <v>4</v>
       </c>
       <c r="H69">
-        <v>3403</v>
+        <v>6641</v>
       </c>
       <c r="I69" t="s">
         <v>5</v>
       </c>
       <c r="J69">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K69" t="s">
         <v>2</v>
       </c>
       <c r="L69">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="M69" t="s">
         <v>17</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="s">
         <v>3</v>
@@ -5953,25 +5929,25 @@
         <v>6</v>
       </c>
       <c r="R69">
-        <v>8397</v>
+        <v>11434</v>
       </c>
       <c r="S69" t="s">
         <v>7</v>
       </c>
       <c r="T69">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U69">
         <f t="shared" si="1"/>
-        <v>4994</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4793</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -5989,7 +5965,7 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>10306</v>
+        <v>13346</v>
       </c>
       <c r="I70" t="s">
         <v>5</v>
@@ -6001,7 +5977,7 @@
         <v>2</v>
       </c>
       <c r="L70">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="M70" t="s">
         <v>17</v>
@@ -6019,7 +5995,7 @@
         <v>6</v>
       </c>
       <c r="R70">
-        <v>15231</v>
+        <v>18146</v>
       </c>
       <c r="S70" t="s">
         <v>7</v>
@@ -6029,15 +6005,15 @@
       </c>
       <c r="U70">
         <f t="shared" si="1"/>
-        <v>4925</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -6055,7 +6031,7 @@
         <v>4</v>
       </c>
       <c r="H71">
-        <v>15232</v>
+        <v>18147</v>
       </c>
       <c r="I71" t="s">
         <v>5</v>
@@ -6067,7 +6043,7 @@
         <v>2</v>
       </c>
       <c r="L71">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="M71" t="s">
         <v>17</v>
@@ -6085,7 +6061,7 @@
         <v>6</v>
       </c>
       <c r="R71">
-        <v>16683</v>
+        <v>22944</v>
       </c>
       <c r="S71" t="s">
         <v>7</v>
@@ -6095,21 +6071,21 @@
       </c>
       <c r="U71">
         <f t="shared" si="1"/>
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="s">
         <v>3</v>
@@ -6121,25 +6097,25 @@
         <v>4</v>
       </c>
       <c r="H72">
-        <v>16684</v>
+        <v>24876</v>
       </c>
       <c r="I72" t="s">
         <v>5</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K72" t="s">
         <v>2</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="M72" t="s">
         <v>17</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="s">
         <v>3</v>
@@ -6151,31 +6127,31 @@
         <v>6</v>
       </c>
       <c r="R72">
-        <v>18180</v>
+        <v>29671</v>
       </c>
       <c r="S72" t="s">
         <v>7</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U72">
         <f t="shared" si="1"/>
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2</v>
       </c>
       <c r="B73">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
         <v>3</v>
@@ -6187,25 +6163,25 @@
         <v>4</v>
       </c>
       <c r="H73">
-        <v>20084</v>
+        <v>29672</v>
       </c>
       <c r="I73" t="s">
         <v>5</v>
       </c>
       <c r="J73">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K73" t="s">
         <v>2</v>
       </c>
       <c r="L73">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="M73" t="s">
         <v>17</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="s">
         <v>3</v>
@@ -6217,25 +6193,25 @@
         <v>6</v>
       </c>
       <c r="R73">
-        <v>25044</v>
+        <v>34501</v>
       </c>
       <c r="S73" t="s">
         <v>7</v>
       </c>
       <c r="T73">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U73">
         <f t="shared" si="1"/>
-        <v>4960</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2</v>
       </c>
       <c r="B74">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -6253,7 +6229,7 @@
         <v>4</v>
       </c>
       <c r="H74">
-        <v>26975</v>
+        <v>36405</v>
       </c>
       <c r="I74" t="s">
         <v>5</v>
@@ -6265,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="L74">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="M74" t="s">
         <v>17</v>
@@ -6283,7 +6259,7 @@
         <v>6</v>
       </c>
       <c r="R74">
-        <v>31942</v>
+        <v>41229</v>
       </c>
       <c r="S74" t="s">
         <v>7</v>
@@ -6293,21 +6269,21 @@
       </c>
       <c r="U74">
         <f t="shared" si="1"/>
-        <v>4967</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
       <c r="B75">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="s">
         <v>3</v>
@@ -6319,25 +6295,25 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>31943</v>
+        <v>43144</v>
       </c>
       <c r="I75" t="s">
         <v>5</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K75" t="s">
         <v>2</v>
       </c>
       <c r="L75">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="M75" t="s">
         <v>17</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="s">
         <v>3</v>
@@ -6349,25 +6325,25 @@
         <v>6</v>
       </c>
       <c r="R75">
-        <v>33420</v>
+        <v>47996</v>
       </c>
       <c r="S75" t="s">
         <v>7</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U75">
         <f t="shared" si="1"/>
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -6385,7 +6361,7 @@
         <v>4</v>
       </c>
       <c r="H76">
-        <v>35328</v>
+        <v>49901</v>
       </c>
       <c r="I76" t="s">
         <v>5</v>
@@ -6397,7 +6373,7 @@
         <v>2</v>
       </c>
       <c r="L76">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="M76" t="s">
         <v>17</v>
@@ -6415,7 +6391,7 @@
         <v>6</v>
       </c>
       <c r="R76">
-        <v>40302</v>
+        <v>54636</v>
       </c>
       <c r="S76" t="s">
         <v>7</v>
@@ -6425,15 +6401,15 @@
       </c>
       <c r="U76">
         <f t="shared" si="1"/>
-        <v>4974</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2</v>
       </c>
       <c r="B77">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -6451,7 +6427,7 @@
         <v>4</v>
       </c>
       <c r="H77">
-        <v>42209</v>
+        <v>56540</v>
       </c>
       <c r="I77" t="s">
         <v>5</v>
@@ -6463,7 +6439,7 @@
         <v>2</v>
       </c>
       <c r="L77">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="M77" t="s">
         <v>17</v>
@@ -6481,7 +6457,7 @@
         <v>6</v>
       </c>
       <c r="R77">
-        <v>47210</v>
+        <v>61422</v>
       </c>
       <c r="S77" t="s">
         <v>7</v>
@@ -6491,10 +6467,10 @@
       </c>
       <c r="U77">
         <f t="shared" si="1"/>
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4882</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -6520,21 +6496,17 @@
         <v>120</v>
       </c>
       <c r="R78" s="2"/>
-      <c r="T78">
-        <f>AVERAGE(T68:T77)</f>
-        <v>1228.2</v>
-      </c>
       <c r="U78" s="2">
         <f>AVERAGE(U68:U77)</f>
-        <v>3572.9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4808.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2</v>
       </c>
       <c r="B79">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -6552,7 +6524,7 @@
         <v>4</v>
       </c>
       <c r="H79">
-        <v>1897</v>
+        <v>1861</v>
       </c>
       <c r="I79" t="s">
         <v>5</v>
@@ -6564,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="L79">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="M79" t="s">
         <v>17</v>
@@ -6582,7 +6554,7 @@
         <v>6</v>
       </c>
       <c r="R79">
-        <v>7064</v>
+        <v>6665</v>
       </c>
       <c r="S79" t="s">
         <v>7</v>
@@ -6592,15 +6564,15 @@
       </c>
       <c r="U79">
         <f t="shared" si="1"/>
-        <v>5167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
       <c r="B80">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
@@ -6618,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>7065</v>
+        <v>6666</v>
       </c>
       <c r="I80" t="s">
         <v>5</v>
@@ -6630,7 +6602,7 @@
         <v>2</v>
       </c>
       <c r="L80">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M80" t="s">
         <v>17</v>
@@ -6648,7 +6620,7 @@
         <v>6</v>
       </c>
       <c r="R80">
-        <v>8581</v>
+        <v>11455</v>
       </c>
       <c r="S80" t="s">
         <v>7</v>
@@ -6658,15 +6630,15 @@
       </c>
       <c r="U80">
         <f t="shared" si="1"/>
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2</v>
       </c>
       <c r="B81">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
         <v>17</v>
@@ -6684,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="H81">
-        <v>10488</v>
+        <v>13354</v>
       </c>
       <c r="I81" t="s">
         <v>5</v>
@@ -6696,7 +6668,7 @@
         <v>2</v>
       </c>
       <c r="L81">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="M81" t="s">
         <v>17</v>
@@ -6714,7 +6686,7 @@
         <v>6</v>
       </c>
       <c r="R81">
-        <v>15639</v>
+        <v>18232</v>
       </c>
       <c r="S81" t="s">
         <v>7</v>
@@ -6724,15 +6696,15 @@
       </c>
       <c r="U81">
         <f t="shared" si="1"/>
-        <v>5151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4878</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
@@ -6750,7 +6722,7 @@
         <v>4</v>
       </c>
       <c r="H82">
-        <v>15640</v>
+        <v>18233</v>
       </c>
       <c r="I82" t="s">
         <v>5</v>
@@ -6762,7 +6734,7 @@
         <v>2</v>
       </c>
       <c r="L82">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="M82" t="s">
         <v>17</v>
@@ -6780,7 +6752,7 @@
         <v>6</v>
       </c>
       <c r="R82">
-        <v>17189</v>
+        <v>22991</v>
       </c>
       <c r="S82" t="s">
         <v>7</v>
@@ -6790,15 +6762,15 @@
       </c>
       <c r="U82">
         <f t="shared" si="1"/>
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -6816,7 +6788,7 @@
         <v>4</v>
       </c>
       <c r="H83">
-        <v>19112</v>
+        <v>24916</v>
       </c>
       <c r="I83" t="s">
         <v>5</v>
@@ -6828,7 +6800,7 @@
         <v>2</v>
       </c>
       <c r="L83">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="M83" t="s">
         <v>17</v>
@@ -6846,7 +6818,7 @@
         <v>6</v>
       </c>
       <c r="R83">
-        <v>24263</v>
+        <v>29634</v>
       </c>
       <c r="S83" t="s">
         <v>7</v>
@@ -6856,21 +6828,21 @@
       </c>
       <c r="U83">
         <f t="shared" si="1"/>
-        <v>5151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>3</v>
@@ -6882,25 +6854,25 @@
         <v>4</v>
       </c>
       <c r="H84">
-        <v>26163</v>
+        <v>29635</v>
       </c>
       <c r="I84" t="s">
         <v>5</v>
       </c>
       <c r="J84">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
         <v>2</v>
       </c>
       <c r="L84">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="M84" t="s">
         <v>17</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="s">
         <v>3</v>
@@ -6912,25 +6884,25 @@
         <v>6</v>
       </c>
       <c r="R84">
-        <v>31135</v>
+        <v>34386</v>
       </c>
       <c r="S84" t="s">
         <v>7</v>
       </c>
       <c r="T84">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U84">
         <f t="shared" si="1"/>
-        <v>4972</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
@@ -6948,7 +6920,7 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>33062</v>
+        <v>36300</v>
       </c>
       <c r="I85" t="s">
         <v>5</v>
@@ -6960,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="L85">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="M85" t="s">
         <v>17</v>
@@ -6978,7 +6950,7 @@
         <v>6</v>
       </c>
       <c r="R85">
-        <v>38170</v>
+        <v>41163</v>
       </c>
       <c r="S85" t="s">
         <v>7</v>
@@ -6988,21 +6960,21 @@
       </c>
       <c r="U85">
         <f t="shared" si="1"/>
-        <v>5108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
@@ -7014,25 +6986,25 @@
         <v>4</v>
       </c>
       <c r="H86">
-        <v>40100</v>
+        <v>41164</v>
       </c>
       <c r="I86" t="s">
         <v>5</v>
       </c>
       <c r="J86">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
         <v>2</v>
       </c>
       <c r="L86">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="M86" t="s">
         <v>17</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="s">
         <v>3</v>
@@ -7044,25 +7016,25 @@
         <v>6</v>
       </c>
       <c r="R86">
-        <v>45040</v>
+        <v>45959</v>
       </c>
       <c r="S86" t="s">
         <v>7</v>
       </c>
       <c r="T86">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U86">
         <f t="shared" si="1"/>
-        <v>4940</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2</v>
       </c>
       <c r="B87">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -7080,7 +7052,7 @@
         <v>4</v>
       </c>
       <c r="H87">
-        <v>46943</v>
+        <v>47869</v>
       </c>
       <c r="I87" t="s">
         <v>5</v>
@@ -7092,7 +7064,7 @@
         <v>2</v>
       </c>
       <c r="L87">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="M87" t="s">
         <v>17</v>
@@ -7110,7 +7082,7 @@
         <v>6</v>
       </c>
       <c r="R87">
-        <v>51842</v>
+        <v>52596</v>
       </c>
       <c r="S87" t="s">
         <v>7</v>
@@ -7120,15 +7092,15 @@
       </c>
       <c r="U87">
         <f t="shared" si="1"/>
-        <v>4899</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -7146,7 +7118,7 @@
         <v>4</v>
       </c>
       <c r="H88">
-        <v>53744</v>
+        <v>54498</v>
       </c>
       <c r="I88" t="s">
         <v>5</v>
@@ -7158,7 +7130,7 @@
         <v>2</v>
       </c>
       <c r="L88">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="M88" t="s">
         <v>17</v>
@@ -7176,7 +7148,7 @@
         <v>6</v>
       </c>
       <c r="R88">
-        <v>58627</v>
+        <v>59272</v>
       </c>
       <c r="S88" t="s">
         <v>7</v>
@@ -7186,10 +7158,10 @@
       </c>
       <c r="U88">
         <f t="shared" si="1"/>
-        <v>4883</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -7215,21 +7187,17 @@
         <v>135</v>
       </c>
       <c r="R89" s="2"/>
-      <c r="T89">
-        <f>AVERAGE(T79:T88)</f>
-        <v>1637.6</v>
-      </c>
       <c r="U89" s="2">
         <f>AVERAGE(U79:U88)</f>
-        <v>4333.6000000000004</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4785.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -7247,7 +7215,7 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>1904</v>
+        <v>1829</v>
       </c>
       <c r="I90" t="s">
         <v>5</v>
@@ -7259,7 +7227,7 @@
         <v>2</v>
       </c>
       <c r="L90">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="M90" t="s">
         <v>17</v>
@@ -7277,7 +7245,7 @@
         <v>6</v>
       </c>
       <c r="R90">
-        <v>6851</v>
+        <v>6605</v>
       </c>
       <c r="S90" t="s">
         <v>7</v>
@@ -7287,21 +7255,21 @@
       </c>
       <c r="U90">
         <f t="shared" si="1"/>
-        <v>4947</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91">
-        <v>271</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>3</v>
@@ -7313,25 +7281,25 @@
         <v>4</v>
       </c>
       <c r="H91">
-        <v>8752</v>
+        <v>6606</v>
       </c>
       <c r="I91" t="s">
         <v>5</v>
       </c>
       <c r="J91">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K91" t="s">
         <v>2</v>
       </c>
       <c r="L91">
-        <v>271</v>
+        <v>31</v>
       </c>
       <c r="M91" t="s">
         <v>17</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="s">
         <v>3</v>
@@ -7343,25 +7311,25 @@
         <v>6</v>
       </c>
       <c r="R91">
-        <v>13723</v>
+        <v>11378</v>
       </c>
       <c r="S91" t="s">
         <v>7</v>
       </c>
       <c r="T91">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U91">
         <f t="shared" si="1"/>
-        <v>4971</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2</v>
       </c>
       <c r="B92">
-        <v>276</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -7379,7 +7347,7 @@
         <v>4</v>
       </c>
       <c r="H92">
-        <v>15654</v>
+        <v>13274</v>
       </c>
       <c r="I92" t="s">
         <v>5</v>
@@ -7391,7 +7359,7 @@
         <v>2</v>
       </c>
       <c r="L92">
-        <v>276</v>
+        <v>62</v>
       </c>
       <c r="M92" t="s">
         <v>17</v>
@@ -7409,7 +7377,7 @@
         <v>6</v>
       </c>
       <c r="R92">
-        <v>20655</v>
+        <v>18076</v>
       </c>
       <c r="S92" t="s">
         <v>7</v>
@@ -7419,21 +7387,21 @@
       </c>
       <c r="U92">
         <f t="shared" si="1"/>
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2</v>
       </c>
       <c r="B93">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>3</v>
@@ -7445,25 +7413,25 @@
         <v>4</v>
       </c>
       <c r="H93">
-        <v>22558</v>
+        <v>18077</v>
       </c>
       <c r="I93" t="s">
         <v>5</v>
       </c>
       <c r="J93">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K93" t="s">
         <v>2</v>
       </c>
       <c r="L93">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M93" t="s">
         <v>17</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93" t="s">
         <v>3</v>
@@ -7475,25 +7443,25 @@
         <v>6</v>
       </c>
       <c r="R93">
-        <v>27567</v>
+        <v>22863</v>
       </c>
       <c r="S93" t="s">
         <v>7</v>
       </c>
       <c r="T93">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U93">
         <f t="shared" si="1"/>
-        <v>5009</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4786</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2</v>
       </c>
       <c r="B94">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -7511,7 +7479,7 @@
         <v>4</v>
       </c>
       <c r="H94">
-        <v>29456</v>
+        <v>24777</v>
       </c>
       <c r="I94" t="s">
         <v>5</v>
@@ -7523,7 +7491,7 @@
         <v>2</v>
       </c>
       <c r="L94">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="M94" t="s">
         <v>17</v>
@@ -7541,7 +7509,7 @@
         <v>6</v>
       </c>
       <c r="R94">
-        <v>34384</v>
+        <v>29532</v>
       </c>
       <c r="S94" t="s">
         <v>7</v>
@@ -7551,15 +7519,15 @@
       </c>
       <c r="U94">
         <f t="shared" si="1"/>
-        <v>4928</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
@@ -7577,7 +7545,7 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>34385</v>
+        <v>29533</v>
       </c>
       <c r="I95" t="s">
         <v>5</v>
@@ -7589,7 +7557,7 @@
         <v>2</v>
       </c>
       <c r="L95">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="M95" t="s">
         <v>17</v>
@@ -7607,7 +7575,7 @@
         <v>6</v>
       </c>
       <c r="R95">
-        <v>35860</v>
+        <v>34299</v>
       </c>
       <c r="S95" t="s">
         <v>7</v>
@@ -7617,15 +7585,15 @@
       </c>
       <c r="U95">
         <f t="shared" si="1"/>
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -7643,7 +7611,7 @@
         <v>4</v>
       </c>
       <c r="H96">
-        <v>37762</v>
+        <v>36230</v>
       </c>
       <c r="I96" t="s">
         <v>5</v>
@@ -7655,7 +7623,7 @@
         <v>2</v>
       </c>
       <c r="L96">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="M96" t="s">
         <v>17</v>
@@ -7673,7 +7641,7 @@
         <v>6</v>
       </c>
       <c r="R96">
-        <v>42836</v>
+        <v>41181</v>
       </c>
       <c r="S96" t="s">
         <v>7</v>
@@ -7683,21 +7651,21 @@
       </c>
       <c r="U96">
         <f t="shared" si="1"/>
-        <v>5074</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>3</v>
@@ -7709,25 +7677,25 @@
         <v>4</v>
       </c>
       <c r="H97">
-        <v>44763</v>
+        <v>41182</v>
       </c>
       <c r="I97" t="s">
         <v>5</v>
       </c>
       <c r="J97">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K97" t="s">
         <v>2</v>
       </c>
       <c r="L97">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="M97" t="s">
         <v>17</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97" t="s">
         <v>3</v>
@@ -7739,25 +7707,25 @@
         <v>6</v>
       </c>
       <c r="R97">
-        <v>49732</v>
+        <v>45908</v>
       </c>
       <c r="S97" t="s">
         <v>7</v>
       </c>
       <c r="T97">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U97">
         <f t="shared" si="1"/>
-        <v>4969</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>2</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
@@ -7775,7 +7743,7 @@
         <v>4</v>
       </c>
       <c r="H98">
-        <v>51647</v>
+        <v>47804</v>
       </c>
       <c r="I98" t="s">
         <v>5</v>
@@ -7787,7 +7755,7 @@
         <v>2</v>
       </c>
       <c r="L98">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="M98" t="s">
         <v>17</v>
@@ -7805,7 +7773,7 @@
         <v>6</v>
       </c>
       <c r="R98">
-        <v>56682</v>
+        <v>52595</v>
       </c>
       <c r="S98" t="s">
         <v>7</v>
@@ -7815,15 +7783,15 @@
       </c>
       <c r="U98">
         <f t="shared" si="1"/>
-        <v>5035</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C99" t="s">
         <v>17</v>
@@ -7841,7 +7809,7 @@
         <v>4</v>
       </c>
       <c r="H99">
-        <v>58597</v>
+        <v>54506</v>
       </c>
       <c r="I99" t="s">
         <v>5</v>
@@ -7853,7 +7821,7 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M99" t="s">
         <v>17</v>
@@ -7871,7 +7839,7 @@
         <v>6</v>
       </c>
       <c r="R99">
-        <v>63532</v>
+        <v>59242</v>
       </c>
       <c r="S99" t="s">
         <v>7</v>
@@ -7881,10 +7849,10 @@
       </c>
       <c r="U99">
         <f t="shared" si="1"/>
-        <v>4935</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -7910,27 +7878,23 @@
         <v>144</v>
       </c>
       <c r="R100" s="2"/>
-      <c r="T100">
-        <f>AVERAGE(T90:T99)</f>
-        <v>1842.3</v>
-      </c>
       <c r="U100" s="2">
         <f>AVERAGE(U90:U99)</f>
-        <v>4634.3999999999996</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4786.1000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>2</v>
       </c>
       <c r="B101">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
@@ -7942,25 +7906,25 @@
         <v>4</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1809</v>
       </c>
       <c r="I101" t="s">
         <v>5</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K101" t="s">
         <v>2</v>
       </c>
       <c r="L101">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="M101" t="s">
         <v>17</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="s">
         <v>3</v>
@@ -7972,31 +7936,31 @@
         <v>6</v>
       </c>
       <c r="R101">
-        <v>1598</v>
+        <v>6632</v>
       </c>
       <c r="S101" t="s">
         <v>7</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U101">
         <f t="shared" si="1"/>
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>2</v>
       </c>
       <c r="B102">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="s">
         <v>3</v>
@@ -8008,25 +7972,25 @@
         <v>4</v>
       </c>
       <c r="H102">
-        <v>3470</v>
+        <v>6633</v>
       </c>
       <c r="I102" t="s">
         <v>5</v>
       </c>
       <c r="J102">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K102" t="s">
         <v>2</v>
       </c>
       <c r="L102">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="M102" t="s">
         <v>17</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102" t="s">
         <v>3</v>
@@ -8038,25 +8002,25 @@
         <v>6</v>
       </c>
       <c r="R102">
-        <v>8579</v>
+        <v>11384</v>
       </c>
       <c r="S102" t="s">
         <v>7</v>
       </c>
       <c r="T102">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U102">
         <f t="shared" si="1"/>
-        <v>5109</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>2</v>
       </c>
       <c r="B103">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
@@ -8074,7 +8038,7 @@
         <v>4</v>
       </c>
       <c r="H103">
-        <v>10504</v>
+        <v>13316</v>
       </c>
       <c r="I103" t="s">
         <v>5</v>
@@ -8086,7 +8050,7 @@
         <v>2</v>
       </c>
       <c r="L103">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="M103" t="s">
         <v>17</v>
@@ -8104,7 +8068,7 @@
         <v>6</v>
       </c>
       <c r="R103">
-        <v>15535</v>
+        <v>18092</v>
       </c>
       <c r="S103" t="s">
         <v>7</v>
@@ -8114,21 +8078,21 @@
       </c>
       <c r="U103">
         <f t="shared" si="1"/>
-        <v>5031</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2</v>
       </c>
       <c r="B104">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="C104" t="s">
         <v>17</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="s">
         <v>3</v>
@@ -8140,25 +8104,25 @@
         <v>4</v>
       </c>
       <c r="H104">
-        <v>17440</v>
+        <v>18093</v>
       </c>
       <c r="I104" t="s">
         <v>5</v>
       </c>
       <c r="J104">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K104" t="s">
         <v>2</v>
       </c>
       <c r="L104">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="M104" t="s">
         <v>17</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104" t="s">
         <v>3</v>
@@ -8170,25 +8134,25 @@
         <v>6</v>
       </c>
       <c r="R104">
-        <v>22501</v>
+        <v>22954</v>
       </c>
       <c r="S104" t="s">
         <v>7</v>
       </c>
       <c r="T104">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U104">
         <f t="shared" si="1"/>
-        <v>5061</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2</v>
       </c>
       <c r="B105">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C105" t="s">
         <v>17</v>
@@ -8206,7 +8170,7 @@
         <v>4</v>
       </c>
       <c r="H105">
-        <v>24394</v>
+        <v>24878</v>
       </c>
       <c r="I105" t="s">
         <v>5</v>
@@ -8218,7 +8182,7 @@
         <v>2</v>
       </c>
       <c r="L105">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="M105" t="s">
         <v>17</v>
@@ -8236,7 +8200,7 @@
         <v>6</v>
       </c>
       <c r="R105">
-        <v>29474</v>
+        <v>29721</v>
       </c>
       <c r="S105" t="s">
         <v>7</v>
@@ -8246,21 +8210,21 @@
       </c>
       <c r="U105">
         <f t="shared" si="1"/>
-        <v>5080</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2</v>
       </c>
       <c r="B106">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
         <v>3</v>
@@ -8272,25 +8236,25 @@
         <v>4</v>
       </c>
       <c r="H106">
-        <v>31386</v>
+        <v>29722</v>
       </c>
       <c r="I106" t="s">
         <v>5</v>
       </c>
       <c r="J106">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K106" t="s">
         <v>2</v>
       </c>
       <c r="L106">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="M106" t="s">
         <v>17</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="s">
         <v>3</v>
@@ -8302,31 +8266,31 @@
         <v>6</v>
       </c>
       <c r="R106">
-        <v>36580</v>
+        <v>34578</v>
       </c>
       <c r="S106" t="s">
         <v>7</v>
       </c>
       <c r="T106">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U106">
         <f t="shared" si="1"/>
-        <v>5194</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4856</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>2</v>
       </c>
       <c r="B107">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="s">
         <v>3</v>
@@ -8338,25 +8302,25 @@
         <v>4</v>
       </c>
       <c r="H107">
-        <v>36581</v>
+        <v>36494</v>
       </c>
       <c r="I107" t="s">
         <v>5</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K107" t="s">
         <v>2</v>
       </c>
       <c r="L107">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="M107" t="s">
         <v>17</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O107" t="s">
         <v>3</v>
@@ -8368,31 +8332,31 @@
         <v>6</v>
       </c>
       <c r="R107">
-        <v>38155</v>
+        <v>41238</v>
       </c>
       <c r="S107" t="s">
         <v>7</v>
       </c>
       <c r="T107">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U107">
         <f t="shared" si="1"/>
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2</v>
       </c>
       <c r="B108">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
         <v>3</v>
@@ -8404,25 +8368,25 @@
         <v>4</v>
       </c>
       <c r="H108">
-        <v>40039</v>
+        <v>41239</v>
       </c>
       <c r="I108" t="s">
         <v>5</v>
       </c>
       <c r="J108">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K108" t="s">
         <v>2</v>
       </c>
       <c r="L108">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="M108" t="s">
         <v>17</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" t="s">
         <v>3</v>
@@ -8434,25 +8398,25 @@
         <v>6</v>
       </c>
       <c r="R108">
-        <v>45094</v>
+        <v>46013</v>
       </c>
       <c r="S108" t="s">
         <v>7</v>
       </c>
       <c r="T108">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U108">
         <f t="shared" si="1"/>
-        <v>5055</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2</v>
       </c>
       <c r="B109">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="C109" t="s">
         <v>17</v>
@@ -8470,7 +8434,7 @@
         <v>4</v>
       </c>
       <c r="H109">
-        <v>46999</v>
+        <v>47941</v>
       </c>
       <c r="I109" t="s">
         <v>5</v>
@@ -8482,7 +8446,7 @@
         <v>2</v>
       </c>
       <c r="L109">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="M109" t="s">
         <v>17</v>
@@ -8500,7 +8464,7 @@
         <v>6</v>
       </c>
       <c r="R109">
-        <v>52184</v>
+        <v>52779</v>
       </c>
       <c r="S109" t="s">
         <v>7</v>
@@ -8510,21 +8474,21 @@
       </c>
       <c r="U109">
         <f t="shared" si="1"/>
-        <v>5185</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>3</v>
@@ -8536,25 +8500,25 @@
         <v>4</v>
       </c>
       <c r="H110">
-        <v>54111</v>
+        <v>52780</v>
       </c>
       <c r="I110" t="s">
         <v>5</v>
       </c>
       <c r="J110">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K110" t="s">
         <v>2</v>
       </c>
       <c r="L110">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="M110" t="s">
         <v>17</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110" t="s">
         <v>3</v>
@@ -8566,28 +8530,28 @@
         <v>6</v>
       </c>
       <c r="R110">
-        <v>59264</v>
+        <v>57572</v>
       </c>
       <c r="S110" t="s">
         <v>7</v>
       </c>
       <c r="T110">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U110">
         <f t="shared" si="1"/>
-        <v>5153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R111" s="2"/>
       <c r="T111">
         <f>AVERAGE(T101:T110)</f>
-        <v>1637.6</v>
+        <v>1023.5</v>
       </c>
       <c r="U111" s="2">
         <f>AVERAGE(U101:U110)</f>
-        <v>4404</v>
+        <v>4805.8</v>
       </c>
     </row>
   </sheetData>
@@ -8601,19 +8565,19 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8636,322 +8600,322 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>4955.2</v>
+        <v>5238.2</v>
       </c>
       <c r="C2" s="1">
         <f>B2*50/1000000</f>
-        <v>0.24776000000000001</v>
+        <v>0.26190999999999998</v>
       </c>
       <c r="D2" s="1">
         <v>1842.3</v>
       </c>
       <c r="E2">
         <f>D2/C2</f>
-        <v>7435.8249919276714</v>
+        <v>7034.0956817227298</v>
       </c>
       <c r="G2">
         <f>ROUND(C2,6)</f>
-        <v>0.24776000000000001</v>
+        <v>0.26190999999999998</v>
       </c>
       <c r="H2">
         <f>FLOOR(E2,1)</f>
-        <v>7435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>5226.7</v>
+        <v>5212.6000000000004</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>0.26133499999999998</v>
+        <v>0.26063000000000003</v>
       </c>
       <c r="D3" s="1">
         <v>2047</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="1">D3/C3</f>
-        <v>7832.858208812444</v>
+        <v>7854.045965545025</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="2">ROUND(C3,6)</f>
-        <v>0.26133499999999998</v>
+        <v>0.26062999999999997</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="3">FLOOR(E3,1)</f>
-        <v>7832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.15</v>
       </c>
       <c r="B4">
-        <v>4416.6000000000004</v>
+        <v>5080.8999999999996</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.22083000000000003</v>
+        <v>0.25404499999999997</v>
       </c>
       <c r="D4" s="1">
         <v>1637.6</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>7415.6591042883656</v>
+        <v>6446.102068531166</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.22083</v>
+        <v>0.25404500000000002</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>7415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>4732.7</v>
+        <v>4983.8</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.23663500000000001</v>
+        <v>0.24918999999999999</v>
       </c>
       <c r="D5" s="1">
         <v>1842.3</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>7785.4079066917402</v>
+        <v>7393.1538183715238</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.23663500000000001</v>
+        <v>0.24918999999999999</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>7785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.25</v>
       </c>
       <c r="B6">
-        <v>4726.5</v>
+        <v>4887.2</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.23632500000000001</v>
+        <v>0.24435999999999999</v>
       </c>
       <c r="D6" s="1">
         <v>1842.3</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>7795.6204379562041</v>
+        <v>7539.2862989032574</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0.23632500000000001</v>
+        <v>0.24435999999999999</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>7795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>4307.2</v>
+        <v>4858.3999999999996</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.21536</v>
+        <v>0.24291999999999997</v>
       </c>
       <c r="D7" s="1">
         <v>1637.6</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>7604.0118870728083</v>
+        <v>6741.3140128437353</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.21536</v>
+        <v>0.24292</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>7604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.35</v>
       </c>
       <c r="B8">
-        <v>3572.9</v>
+        <v>4808.7</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.178645</v>
+        <v>0.24043500000000001</v>
       </c>
       <c r="D8" s="1">
         <v>1228.2</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>6875.0874639648464</v>
+        <v>5108.2413126208749</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>0.178645</v>
+        <v>0.24043500000000001</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>6875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>4333.6000000000004</v>
+        <v>4785.7</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.21668000000000004</v>
+        <v>0.239285</v>
       </c>
       <c r="D9" s="1">
         <v>1637.6</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>7557.6887576149138</v>
+        <v>6843.7219215579744</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>0.21668000000000001</v>
+        <v>0.239285</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>7557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>4634.3999999999996</v>
+        <v>4786.1000000000004</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.23171999999999998</v>
+        <v>0.23930500000000002</v>
       </c>
       <c r="D10" s="1">
         <v>1842.3</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>7950.5437597099954</v>
+        <v>7698.5436994630272</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0.23172000000000001</v>
+        <v>0.23930499999999999</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>7950</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.49</v>
       </c>
       <c r="B11">
-        <v>4404</v>
+        <v>4805.8</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.22020000000000001</v>
+        <v>0.24029</v>
       </c>
       <c r="D11" s="1">
         <v>1637.6</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>7436.8755676657574</v>
+        <v>6815.09842273919</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0.22020000000000001</v>
+        <v>0.24029</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>7436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>0.21688000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>0.22201999999999997</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>0.2208</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>0.21825500000000003</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>0.21959000000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>0.22290500000000002</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>0.221715</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>0.223135</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>0.22186999999999998</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>0.22478000000000004</v>
       </c>
@@ -8970,12 +8934,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8986,7 +8950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>512</v>
       </c>
@@ -8997,7 +8961,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1024</v>
       </c>
@@ -9008,7 +8972,7 @@
         <v>6868</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1536</v>
       </c>
@@ -9019,7 +8983,7 @@
         <v>7041</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2048</v>
       </c>
@@ -9030,7 +8994,7 @@
         <v>7075</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2560</v>
       </c>
@@ -9041,7 +9005,7 @@
         <v>7113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3072</v>
       </c>
@@ -9052,7 +9016,7 @@
         <v>7122</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3584</v>
       </c>
@@ -9063,7 +9027,7 @@
         <v>7106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
@@ -9074,7 +9038,7 @@
         <v>7164</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4608</v>
       </c>
@@ -9085,7 +9049,7 @@
         <v>7174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
